--- a/src/test/resources/testdata/Logincred.xlsx
+++ b/src/test/resources/testdata/Logincred.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Tripgain-new-scripts-main\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49AF831-6C51-4B0A-BCA8-3928E8D52E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F117A-8E66-4D16-AEB3-D28303BCD8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B48DCAD-885E-4B11-B7CA-2F966DCBEE62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3B48DCAD-885E-4B11-B7CA-2F966DCBEE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t xml:space="preserve">Username </t>
   </si>
   <si>
-    <t>testtraveller98@tripgain.com</t>
-  </si>
-  <si>
-    <t>@AM@TGA1$29TN</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>thanks@123</t>
+  </si>
+  <si>
+    <t>tarun@tripgain.com</t>
+  </si>
+  <si>
+    <t>WXOlqr3282</t>
   </si>
 </sst>
 </file>
@@ -76,12 +76,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,6 +91,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,7 +440,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,37 +454,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{EFB42004-5D12-4F42-9AA6-B8CD4904F68D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{788CD6BC-BCB8-42AA-8589-8FD26FCFA670}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{788CD6BC-BCB8-42AA-8589-8FD26FCFA670}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{63D446A2-A11F-4CD8-8BDD-3F08310127BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
